--- a/Investigation.xlsx
+++ b/Investigation.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -489,647 +489,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>0.35</v>
-      </c>
-      <c r="G2">
-        <v>0.45</v>
-      </c>
-      <c r="H2">
-        <v>0.2</v>
-      </c>
-      <c r="K2">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="L2">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="M2">
-        <v>0.157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>14.7</v>
-      </c>
-      <c r="C4">
-        <v>0.87</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <f>(B4-B$10)/(B$9-B$10)</f>
-        <v>0.10000000000000006</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="F4:H8" si="0">(C4-C$10)/(C$9-C$10)</f>
-        <v>0.68000000000000016</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="I4">
-        <f>F4*$F$2+G4*$G$2+H4*$H$2</f>
-        <v>0.44626315789473697</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <f>(B4-B$10)/(B$9-B$10)</f>
-        <v>0.10000000000000006</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:M8" si="1">(C4-C$10)/(C$9-C$10)</f>
-        <v>0.68000000000000016</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="N4">
-        <f>K4*K$2+L4*L$2+M4*M$2</f>
-        <v>0.61701157894736858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C5">
-        <v>0.85</v>
-      </c>
-      <c r="D5">
-        <v>20.6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <f>(B5-B$10)/(B$9-B$10)</f>
-        <v>0.48461538461538467</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0.75789473684210518</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I8" si="2">F5*$F$2+G5*$G$2+H5*$H$2</f>
-        <v>0.59119433198380578</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K8" si="3">(B5-B$10)/(B$9-B$10)</f>
-        <v>0.48461538461538467</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>0.75789473684210518</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ref="N5:N8" si="4">K5*K$2+L5*L$2+M5*M$2</f>
-        <v>0.61705870445344135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>7.5</v>
-      </c>
-      <c r="C6">
-        <v>0.89</v>
-      </c>
-      <c r="D6">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.65384615384615385</v>
-      </c>
-      <c r="G6" s="2">
-        <f>(C6-C$10)/(C$9-C$10)</f>
-        <v>0.76000000000000023</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.75084615384615405</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.65384615384615385</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.76000000000000023</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.77486769230769248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C7">
-        <v>0.85</v>
-      </c>
-      <c r="D7">
-        <v>23.6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.85384615384615381</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
-        <v>0.68884615384615389</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>0.85384615384615381</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
-        <v>0.61700769230769237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7.8</v>
-      </c>
-      <c r="C8">
-        <v>0.83</v>
-      </c>
-      <c r="D8">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.63076923076923075</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0.52</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>1.5789473684210378E-2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
-        <v>0.45792712550607284</v>
-      </c>
-      <c r="J8" s="1">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>0.63076923076923075</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>0.52</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>1.5789473684210378E-2</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
-        <v>0.44826048582995953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0.95</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>0.7</v>
-      </c>
-      <c r="D10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C14">
-        <v>0.85</v>
-      </c>
-      <c r="D14">
-        <v>23.6</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ref="F14:H18" si="5">(B14-B$20)/(B$19-B$20)</f>
-        <v>0.91363636363636369</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="5"/>
-        <v>0.88</v>
-      </c>
-      <c r="I14">
-        <f>F14*$K$13+G14*$K$14+H14*$K$15</f>
-        <v>0.76577272727272738</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>7.8</v>
-      </c>
-      <c r="C15">
-        <v>0.83</v>
-      </c>
-      <c r="D15">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="5"/>
-        <v>0.78181818181818175</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="5"/>
-        <v>0.52</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="5"/>
-        <v>0.5099999999999999</v>
-      </c>
-      <c r="I15">
-        <f>F15*$K$13+G15*$K$14+H15*$K$15</f>
-        <v>0.60963636363636353</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>13.7</v>
-      </c>
-      <c r="C16">
-        <v>0.85</v>
-      </c>
-      <c r="D16">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="5"/>
-        <v>0.51363636363636367</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="5"/>
-        <v>0.57333333333333347</v>
-      </c>
-      <c r="I16">
-        <f>F16*$K$13+G16*$K$14+H16*$K$15</f>
-        <v>0.56443939393939402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>24.5</v>
-      </c>
-      <c r="C17">
-        <v>0.88</v>
-      </c>
-      <c r="D17">
-        <v>28.9</v>
-      </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="5"/>
-        <v>2.2727272727272728E-2</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="5"/>
-        <v>0.7200000000000002</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="5"/>
-        <v>0.70333333333333337</v>
-      </c>
-      <c r="I17">
-        <f>F17*$K$13+G17*$K$14+H17*$K$15</f>
-        <v>0.47262121212121222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>13.4</v>
-      </c>
-      <c r="C18">
-        <v>0.8</v>
-      </c>
-      <c r="D18">
-        <v>45.4</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="5"/>
-        <v>0.52727272727272723</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="5"/>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="5"/>
-        <v>0.15333333333333338</v>
-      </c>
-      <c r="I18">
-        <f>F18*$K$13+G18*$K$14+H18*$K$15</f>
-        <v>0.39521212121212135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>0.95</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>0.7</v>
-      </c>
-      <c r="D20">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,6 +943,642 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0.35</v>
+      </c>
+      <c r="G2">
+        <v>0.45</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="K2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="M2">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>14.7</v>
+      </c>
+      <c r="C4">
+        <v>0.87</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>(B4-B$10)/(B$9-B$10)</f>
+        <v>0.10000000000000006</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="F4:H8" si="0">(C4-C$10)/(C$9-C$10)</f>
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="I4">
+        <f>F4*$F$2+G4*$G$2+H4*$H$2</f>
+        <v>0.44626315789473697</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f>(B4-B$10)/(B$9-B$10)</f>
+        <v>0.10000000000000006</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:M8" si="1">(C4-C$10)/(C$9-C$10)</f>
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="N4">
+        <f>K4*K$2+L4*L$2+M4*M$2</f>
+        <v>0.61701157894736858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C5">
+        <v>0.85</v>
+      </c>
+      <c r="D5">
+        <v>20.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f>(B5-B$10)/(B$9-B$10)</f>
+        <v>0.48461538461538467</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.75789473684210518</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I8" si="2">F5*$F$2+G5*$G$2+H5*$H$2</f>
+        <v>0.59119433198380578</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K8" si="3">(B5-B$10)/(B$9-B$10)</f>
+        <v>0.48461538461538467</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.75789473684210518</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N8" si="4">K5*K$2+L5*L$2+M5*M$2</f>
+        <v>0.61705870445344135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7.5</v>
+      </c>
+      <c r="C6">
+        <v>0.89</v>
+      </c>
+      <c r="D6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.65384615384615385</v>
+      </c>
+      <c r="G6" s="2">
+        <f>(C6-C$10)/(C$9-C$10)</f>
+        <v>0.76000000000000023</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75084615384615405</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.65384615384615385</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.76000000000000023</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.77486769230769248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C7">
+        <v>0.85</v>
+      </c>
+      <c r="D7">
+        <v>23.6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.85384615384615381</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.68884615384615389</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0.85384615384615381</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>0.61700769230769237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7.8</v>
+      </c>
+      <c r="C8">
+        <v>0.83</v>
+      </c>
+      <c r="D8">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.63076923076923075</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.5789473684210378E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.45792712550607284</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.63076923076923075</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>1.5789473684210378E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>0.44826048582995953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0.95</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0.7</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C14">
+        <v>0.85</v>
+      </c>
+      <c r="D14">
+        <v>23.6</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:H18" si="5">(B14-B$20)/(B$19-B$20)</f>
+        <v>0.91363636363636369</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>0.88</v>
+      </c>
+      <c r="I14">
+        <f>F14*$K$13+G14*$K$14+H14*$K$15</f>
+        <v>0.76577272727272738</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>7.8</v>
+      </c>
+      <c r="C15">
+        <v>0.83</v>
+      </c>
+      <c r="D15">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>0.78181818181818175</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>0.52</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>0.5099999999999999</v>
+      </c>
+      <c r="I15">
+        <f>F15*$K$13+G15*$K$14+H15*$K$15</f>
+        <v>0.60963636363636353</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>13.7</v>
+      </c>
+      <c r="C16">
+        <v>0.85</v>
+      </c>
+      <c r="D16">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>0.51363636363636367</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>0.57333333333333347</v>
+      </c>
+      <c r="I16">
+        <f>F16*$K$13+G16*$K$14+H16*$K$15</f>
+        <v>0.56443939393939402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>24.5</v>
+      </c>
+      <c r="C17">
+        <v>0.88</v>
+      </c>
+      <c r="D17">
+        <v>28.9</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>0.7200000000000002</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>0.70333333333333337</v>
+      </c>
+      <c r="I17">
+        <f>F17*$K$13+G17*$K$14+H17*$K$15</f>
+        <v>0.47262121212121222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>13.4</v>
+      </c>
+      <c r="C18">
+        <v>0.8</v>
+      </c>
+      <c r="D18">
+        <v>45.4</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>0.15333333333333338</v>
+      </c>
+      <c r="I18">
+        <f>F18*$K$13+G18*$K$14+H18*$K$15</f>
+        <v>0.39521212121212135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0.95</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>0.7</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/Investigation.xlsx
+++ b/Investigation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>k1</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Index size</t>
   </si>
   <si>
-    <t>Index time</t>
-  </si>
-  <si>
     <t>Alternative</t>
   </si>
   <si>
@@ -103,6 +100,33 @@
   </si>
   <si>
     <t>Python module - without indexing (dynamic n)</t>
+  </si>
+  <si>
+    <t>Index time (min)</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>E(Index size)</t>
+  </si>
+  <si>
+    <t>E(Index time)</t>
+  </si>
+  <si>
+    <t>E(Precision)</t>
+  </si>
+  <si>
+    <t>E(Recall)</t>
+  </si>
+  <si>
+    <t>E(Fall-out)</t>
+  </si>
+  <si>
+    <t>E(Search time)</t>
   </si>
 </sst>
 </file>
@@ -177,16 +201,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -200,6 +238,290 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Весовые коэффициенты 1</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MySQL n- gram index</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sphinx system</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python module n=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Python module n=3..5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python module - without indexing (dynamic n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$P$4:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.41425794286918138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56872595210051036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49087301587301591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45347551741544678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Весовые коэффициенты 2</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MySQL n- gram index</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sphinx system</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python module n=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Python module n=3..5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python module - without indexing (dynamic n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$X$4:$X$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.70502870043188071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5963717836383311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36815476190476187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49278741027566758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97804878048780497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Весовые коэффициенты 3</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MySQL n- gram index</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sphinx system</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python module n=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Python module n=3..5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python module - without indexing (dynamic n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$AF$4:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.51058425598743629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61063330125350723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5135912698412699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46878915243594632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98780487804878048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="76260864"/>
+        <c:axId val="113341504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="76260864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113341504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113341504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76260864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579782</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,11 +811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4:H8"/>
+      <selection pane="topRight" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,445 +823,831 @@
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="8.85546875" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="6.5703125" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
+    <col min="21" max="21" width="8" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" customWidth="1"/>
+    <col min="31" max="31" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J1" s="5" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="R1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J2" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="U1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="8"/>
+      <c r="Z1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="P2" s="11">
+        <f>SUM(J2:O2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="W2" s="6">
         <v>0.45</v>
       </c>
-      <c r="L2" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="R2" s="4">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0.157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="X2" s="11">
+        <f>SUM(R2:W2)</f>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="AF2" s="11">
+        <f>SUM(Z2:AE2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J8" si="0">(C4-C$10)/(C$9-C$10)</f>
+        <v>0.9434628975265017</v>
+      </c>
+      <c r="K4" s="6">
+        <f>(D4-D$10)/(D$9-D$10)</f>
+        <v>0.99044444444444446</v>
+      </c>
+      <c r="L4" s="6">
+        <f>(E4-E$10)/(E$9-E$10)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <f>(G4-G$10)/(G$9-G$10)</f>
+        <v>5.5555555555555608E-2</v>
+      </c>
+      <c r="O4" s="6">
+        <f>(H4-H$9)/(H$10-H$9)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <f>J4*$J$2+K4*$K$2+L4*$L$2+M4*$M$2+N4*$N$2+O8*$O$2</f>
+        <v>0.41425794286918138</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" ref="R4:R8" si="1">(C4-C$10)/(C$9-C$10)</f>
+        <v>0.9434628975265017</v>
+      </c>
+      <c r="S4" s="6">
+        <f>(D4-D$10)/(D$9-D$10)</f>
+        <v>0.99044444444444446</v>
+      </c>
+      <c r="T4" s="6">
+        <f>(E4-E$10)/(E$9-E$10)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="6">
+        <f t="shared" ref="V4:V8" si="2">(G4-G$10)/(G$9-G$10)</f>
+        <v>5.5555555555555608E-2</v>
+      </c>
+      <c r="W4" s="6">
+        <f t="shared" ref="W4:W8" si="3">(H4-H$10)/(H$9-H$10)</f>
+        <v>1</v>
+      </c>
+      <c r="X4" s="6">
+        <f>R4*R$2+S4*S$2+T4*T$2+U4*U$2+V4*V$2+W4*W$2</f>
+        <v>0.70502870043188071</v>
+      </c>
+      <c r="Z4" s="6">
+        <f>(C4-C$10)/(C$9-C$10)</f>
+        <v>0.9434628975265017</v>
+      </c>
+      <c r="AA4" s="6">
+        <f>(D4-D$10)/(D$9-D$10)</f>
+        <v>0.99044444444444446</v>
+      </c>
+      <c r="AB4" s="6">
+        <f>(E4-E$10)/(E$9-E$10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="6">
+        <f t="shared" ref="AD4:AE8" si="4">(G4-G$10)/(G$9-G$10)</f>
+        <v>5.5555555555555608E-2</v>
+      </c>
+      <c r="AE4" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF4" s="6">
+        <f>Z4*Z$2+AA4*AA$2+AB4*AB$2+AC4*AC$2+AD4*AD$2+AE4*AE$2</f>
+        <v>0.51058425598743629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.72614840989399299</v>
+      </c>
+      <c r="K5" s="6">
+        <f>(D5-D$10)/(D$9-D$10)</f>
+        <v>0.82222222222222219</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ref="L5:L8" si="5">(E5-E$10)/(E$9-E$10)</f>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" ref="N5:N8" si="6">(G5-G$10)/(G$9-G$10)</f>
+        <v>0.44444444444444453</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" ref="O5:O8" si="7">(H5-H$9)/(H$10-H$9)</f>
+        <v>0.53658536585365846</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" ref="P5:P8" si="8">J5*$J$2+K5*$K$2+L5*$L$2+M5*$M$2+N5*$N$2+O9*$O$2</f>
+        <v>0.56872595210051036</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.72614840989399299</v>
+      </c>
+      <c r="S5" s="6">
+        <f>(D5-D$10)/(D$9-D$10)</f>
+        <v>0.82222222222222219</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" ref="T5:T8" si="9">(E5-E$10)/(E$9-E$10)</f>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444453</v>
+      </c>
+      <c r="W5" s="6">
+        <f t="shared" si="3"/>
+        <v>0.46341463414634149</v>
+      </c>
+      <c r="X5" s="6">
+        <f t="shared" ref="X5:X8" si="10">R5*R$2+S5*S$2+T5*T$2+U5*U$2+V5*V$2+W5*W$2</f>
+        <v>0.5963717836383311</v>
+      </c>
+      <c r="Z5" s="6">
+        <f t="shared" ref="Z5:Z8" si="11">(C5-C$10)/(C$9-C$10)</f>
+        <v>0.72614840989399299</v>
+      </c>
+      <c r="AA5" s="6">
+        <f>(D5-D$10)/(D$9-D$10)</f>
+        <v>0.82222222222222219</v>
+      </c>
+      <c r="AB5" s="6">
+        <f>(E5-E$10)/(E$9-E$10)</f>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="6">
+        <f t="shared" si="4"/>
+        <v>0.44444444444444453</v>
+      </c>
+      <c r="AE5" s="6">
+        <f t="shared" si="4"/>
+        <v>0.46341463414634149</v>
+      </c>
+      <c r="AF5" s="6">
+        <f t="shared" ref="AF5:AF8" si="12">Z5*Z$2+AA5*AA$2+AB5*AB$2+AC5*AC$2+AD5*AD$2+AE5*AE$2</f>
+        <v>0.61063330125350723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6">
+        <v>56.6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <f>(D6-D$10)/(D$9-D$10)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="5"/>
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="6"/>
+        <v>0.72222222222222232</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="8"/>
+        <v>0.49087301587301591</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <f>(D6-D$10)/(D$9-D$10)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="9"/>
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.72222222222222232</v>
+      </c>
+      <c r="W6" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <f t="shared" si="10"/>
+        <v>0.36815476190476187</v>
+      </c>
+      <c r="Z6" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
+        <f>(D6-D$10)/(D$9-D$10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6">
+        <f>(E6-E$10)/(E$9-E$10)</f>
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="6">
+        <f t="shared" si="4"/>
+        <v>0.72222222222222232</v>
+      </c>
+      <c r="AE6" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="6">
+        <f t="shared" si="12"/>
+        <v>0.5135912698412699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6">
+        <v>13.8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7561837455830388</v>
+      </c>
+      <c r="K7" s="6">
+        <f>(D7-D$10)/(D$9-D$10)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="5"/>
+        <v>0.5892857142857143</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="7"/>
+        <v>0.58536585365853655</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="8"/>
+        <v>0.45347551741544678</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.7561837455830388</v>
+      </c>
+      <c r="S7" s="6">
+        <f>(D7-D$10)/(D$9-D$10)</f>
+        <v>0.6</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="9"/>
+        <v>0.5892857142857143</v>
+      </c>
+      <c r="U7" s="6">
+        <v>1</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <f t="shared" si="3"/>
+        <v>0.41463414634146339</v>
+      </c>
+      <c r="X7" s="6">
+        <f t="shared" si="10"/>
+        <v>0.49278741027566758</v>
+      </c>
+      <c r="Z7" s="6">
+        <f t="shared" si="11"/>
+        <v>0.7561837455830388</v>
+      </c>
+      <c r="AA7" s="6">
+        <f>(D7-D$10)/(D$9-D$10)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AB7" s="6">
+        <f>(E7-E$10)/(E$9-E$10)</f>
+        <v>0.5892857142857143</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="6">
+        <f t="shared" si="4"/>
+        <v>0.41463414634146339</v>
+      </c>
+      <c r="AF7" s="6">
+        <f t="shared" si="12"/>
+        <v>0.46878915243594632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <f>(D8-D$10)/(D$9-D$10)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="7"/>
+        <v>4.878048780487803E-2</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="6">
+        <f>(D8-D$10)/(D$9-D$10)</f>
+        <v>1</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="6">
+        <v>1</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.95121951219512202</v>
+      </c>
+      <c r="X8" s="6">
+        <f t="shared" si="10"/>
+        <v>0.97804878048780497</v>
+      </c>
+      <c r="Z8" s="6">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6">
+        <f>(D8-D$10)/(D$9-D$10)</f>
+        <v>1</v>
+      </c>
+      <c r="AB8" s="6">
+        <f>(E8-E$10)/(E$9-E$10)</f>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE8" s="6">
+        <f t="shared" si="4"/>
+        <v>0.95121951219512202</v>
+      </c>
+      <c r="AF8" s="6">
+        <f t="shared" si="12"/>
+        <v>0.98780487804878048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.87</v>
-      </c>
-      <c r="E4" s="4">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="4">
-        <f>(C4-C$10)/(C$9-C$10)</f>
-        <v>0.10000000000000006</v>
-      </c>
-      <c r="K4" s="4">
-        <f>(D4-D$10)/(D$9-D$10)</f>
-        <v>0.68000000000000016</v>
-      </c>
-      <c r="L4" s="4">
-        <f>(E4-E$10)/(E$9-E$10)</f>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4">
-        <f>J4*$J$2+K4*$K$2+L4*$L$2</f>
-        <v>0.44626315789473697</v>
-      </c>
-      <c r="R4" s="4">
-        <f>(C4-C$10)/(C$9-C$10)</f>
-        <v>0.10000000000000006</v>
-      </c>
-      <c r="S4" s="4">
-        <f>(D4-D$10)/(D$9-D$10)</f>
-        <v>0.68000000000000016</v>
-      </c>
-      <c r="T4" s="4">
-        <f>(E4-E$10)/(E$9-E$10)</f>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4">
-        <f>R4*R$2+S4*S$2+T4*T$2</f>
-        <v>0.61701157894736858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="E5" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="J5" s="4">
-        <f>(C5-C$10)/(C$9-C$10)</f>
-        <v>0.48461538461538467</v>
-      </c>
-      <c r="K5" s="4">
-        <f>(D5-D$10)/(D$9-D$10)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="L5" s="4">
-        <f>(E5-E$10)/(E$9-E$10)</f>
-        <v>0.75789473684210518</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4">
-        <f>J5*$J$2+K5*$K$2+L5*$L$2</f>
-        <v>0.59119433198380578</v>
-      </c>
-      <c r="R5" s="4">
-        <f>(C5-C$10)/(C$9-C$10)</f>
-        <v>0.48461538461538467</v>
-      </c>
-      <c r="S5" s="4">
-        <f>(D5-D$10)/(D$9-D$10)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="T5" s="4">
-        <f>(E5-E$10)/(E$9-E$10)</f>
-        <v>0.75789473684210518</v>
-      </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4">
-        <f>R5*R$2+S5*S$2+T5*T$2</f>
-        <v>0.61705870445344135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="E6" s="4">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="J6" s="4">
-        <f>(C6-C$10)/(C$9-C$10)</f>
-        <v>0.65384615384615385</v>
-      </c>
-      <c r="K6" s="4">
-        <f>(D6-D$10)/(D$9-D$10)</f>
-        <v>0.76000000000000023</v>
-      </c>
-      <c r="L6" s="4">
-        <f>(E6-E$10)/(E$9-E$10)</f>
-        <v>0.9</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4">
-        <f>J6*$J$2+K6*$K$2+L6*$L$2</f>
-        <v>0.75084615384615405</v>
-      </c>
-      <c r="R6" s="4">
-        <f>(C6-C$10)/(C$9-C$10)</f>
-        <v>0.65384615384615385</v>
-      </c>
-      <c r="S6" s="4">
-        <f>(D6-D$10)/(D$9-D$10)</f>
-        <v>0.76000000000000023</v>
-      </c>
-      <c r="T6" s="4">
-        <f>(E6-E$10)/(E$9-E$10)</f>
-        <v>0.9</v>
-      </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4">
-        <f>R6*R$2+S6*S$2+T6*T$2</f>
-        <v>0.77486769230769248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="E7" s="4">
-        <v>23.6</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="J7" s="4">
-        <f>(C7-C$10)/(C$9-C$10)</f>
-        <v>0.85384615384615381</v>
-      </c>
-      <c r="K7" s="4">
-        <f>(D7-D$10)/(D$9-D$10)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="L7" s="4">
-        <f>(E7-E$10)/(E$9-E$10)</f>
-        <v>0.6</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4">
-        <f>J7*$J$2+K7*$K$2+L7*$L$2</f>
-        <v>0.68884615384615389</v>
-      </c>
-      <c r="R7" s="4">
-        <f>(C7-C$10)/(C$9-C$10)</f>
-        <v>0.85384615384615381</v>
-      </c>
-      <c r="S7" s="4">
-        <f>(D7-D$10)/(D$9-D$10)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="T7" s="4">
-        <f>(E7-E$10)/(E$9-E$10)</f>
-        <v>0.6</v>
-      </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4">
-        <f>R7*R$2+S7*S$2+T7*T$2</f>
-        <v>0.61700769230769237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="E8" s="4">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="J8" s="4">
-        <f>(C8-C$10)/(C$9-C$10)</f>
-        <v>0.63076923076923075</v>
-      </c>
-      <c r="K8" s="4">
-        <f>(D8-D$10)/(D$9-D$10)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L8" s="4">
-        <f>(E8-E$10)/(E$9-E$10)</f>
-        <v>1.5789473684210378E-2</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4">
-        <f>J8*$J$2+K8*$K$2+L8*$L$2</f>
-        <v>0.45792712550607284</v>
-      </c>
-      <c r="R8" s="4">
-        <f>(C8-C$10)/(C$9-C$10)</f>
-        <v>0.63076923076923075</v>
-      </c>
-      <c r="S8" s="4">
-        <f>(D8-D$10)/(D$9-D$10)</f>
-        <v>0.52</v>
-      </c>
-      <c r="T8" s="4">
-        <f>(E8-E$10)/(E$9-E$10)</f>
-        <v>1.5789473684210378E-2</v>
-      </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4">
-        <f>R8*R$2+S8*S$2+T8*T$2</f>
-        <v>0.44826048582995953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="6">
+        <f>MIN(C4:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <f>MIN(D4:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <f>MAX(E4:E8)</f>
+        <v>0.79</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" ref="F9:H9" si="13">MIN(F4:F8)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="13"/>
+        <v>0.08</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="13"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="E9" s="4">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E10" s="4">
-        <v>35</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="C10" s="6">
+        <f>MAX(C4:C8)</f>
+        <v>56.6</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10:H10" si="14">MAX(D4:D8)</f>
+        <v>45</v>
+      </c>
+      <c r="E10" s="6">
+        <f>MIN(E4:E8)</f>
+        <v>0.23</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="14"/>
+        <v>0.26</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="14"/>
+        <v>0.48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -947,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
